--- a/project/arquivo.xlsx
+++ b/project/arquivo.xlsx
@@ -608,8 +608,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Em Atendimento</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -1312,7 +1311,7 @@
       <c r="M16" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1366,8 +1365,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1422,7 +1420,7 @@
       <c r="M18" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1531,7 +1529,7 @@
       <c r="M20" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1693,8 +1691,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1748,7 +1745,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Em Atendimento</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -2018,8 +2015,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2074,7 +2070,7 @@
       <c r="M30" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2668,7 +2664,8 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2777,7 +2774,7 @@
       <c r="M43" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3155,8 +3152,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3264,8 +3260,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3428,7 +3423,7 @@
       <c r="M55" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3910,8 +3905,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -3966,7 +3960,7 @@
       <c r="M65" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4020,7 +4014,8 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4129,7 +4124,7 @@
       <c r="M68" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4447,14 +4442,14 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R$ 494,52</t>
+          <t>R$ 499,20</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4508,8 +4503,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4618,7 +4612,7 @@
       <c r="M77" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+                                    Última Checagem á 11 segundos</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -4776,7 +4770,8 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>

--- a/project/arquivo.xlsx
+++ b/project/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cigana Amanda</t>
+          <t>Agatha Sensitiva</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,13 +504,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>189.015.628-04</t>
+          <t>140.266.778-77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 234,08</t>
+          <t>R$ 380,12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -518,13 +518,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Higor D`Oxala</t>
+          <t>Aylla</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,13 +534,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>341.635.858-93</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$ 421,08</t>
+          <t>R$ 150,12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -548,13 +548,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Médium Amora</t>
+          <t>Consultas Avaliativas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -562,15 +562,11 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>294.298.332</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 189,84</t>
+          <t>R$ -3,50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -578,13 +574,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bridget</t>
+          <t>Safira</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -594,13 +590,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>268.869.558-45</t>
+          <t>128.318.037-56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 14,88</t>
+          <t>R$ 108,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -608,13 +604,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kabila</t>
+          <t>Cigana Helena</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -624,7 +620,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>031.637.788-01</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -638,13 +634,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>César</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -654,13 +650,13 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>400.637.918-89</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 44,16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -668,13 +664,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>testeatt1</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -682,11 +678,15 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>336.455.648-29</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 958,88</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -694,13 +694,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Inaê</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -710,13 +710,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>135.629.258-59</t>
+          <t>140.003.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 34,56</t>
+          <t>R$ 173,16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -724,13 +724,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Beatrice de Yemanjá</t>
+          <t>Castiel</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -740,13 +740,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>006.877.098-73</t>
+          <t>341.635.858-93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 77,48</t>
+          <t>R$ 267,36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -754,13 +754,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Radina</t>
+          <t>Cigana Cristal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,13 +770,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>703.439.570-5</t>
+          <t>514.672.528-40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ -11,20</t>
+          <t>R$ 105,12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -784,13 +784,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cigana Safira</t>
+          <t>testeatt1 - NÃO REMOVER</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -798,15 +798,11 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>480.341.128-01</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ -20,16</t>
+          <t>R$ -12,00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -814,13 +810,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Anna Médium</t>
+          <t>Carmencita</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -830,13 +826,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>833.172.877-72</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 238,16</t>
+          <t>R$ 338,88</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -844,13 +840,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cigana Livia</t>
+          <t>Cigana Clarissa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -860,13 +856,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>844.258.490-00</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 370,02</t>
+          <t>R$ 134,40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -874,13 +870,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sensitiva Quitéria</t>
+          <t>Merlia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -890,13 +886,13 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>221.006.378-78</t>
+          <t>107.833.089-14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 199,95</t>
+          <t>R$ 266,24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -904,13 +900,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Allano D´Ogum</t>
+          <t>Cigano Belmiro</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -920,13 +916,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>478.756.405-63</t>
+          <t>050.698.125-80</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 166,08</t>
+          <t>R$ 304,80</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -934,13 +930,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cigana Sol</t>
+          <t>Cigana Carmem</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -950,13 +946,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>991.379.097-20</t>
+          <t>904.393.251-53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 51,10</t>
+          <t>R$ 43,20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -964,13 +960,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cigana Consuela</t>
+          <t>Bruxa Celeste</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -980,13 +976,13 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>480.141.538-55</t>
+          <t>444.277.598-23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 46,08</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -994,13 +990,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kyara</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1010,13 +1006,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>040.725.688-13</t>
+          <t>042.734.029-20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 48,00</t>
+          <t>R$ 93,12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1024,13 +1020,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cigana Rosa</t>
+          <t>Natasha Cigana</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1040,13 +1036,13 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>859.082.159-53</t>
+          <t>131.946.738-58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 55,68</t>
+          <t>R$ 167,44</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1054,13 +1050,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sarika Clarividente</t>
+          <t>Rosa Maria</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1070,13 +1066,13 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>483.724.985-04</t>
+          <t>104.767.004-69</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 47,84</t>
+          <t>R$ 596,44</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1084,13 +1080,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mistica Brida</t>
+          <t>Mística Pandora</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1100,7 +1096,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>447.198.599-0</t>
+          <t>443.012.598-80</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1114,13 +1110,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Carmem</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1130,13 +1126,13 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000.000.000-00</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 281,84</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1144,13 +1140,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Adna Cigana</t>
+          <t>Xamã Tarólogo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1160,13 +1156,13 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>022.110.677-43</t>
+          <t>180.743.808-23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 162,24</t>
+          <t>R$ 42,64</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1174,13 +1170,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cigana Briza</t>
+          <t>Cigana Delins</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1190,13 +1186,13 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>103.688.977-70</t>
+          <t>367.219.298-80</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 69,60</t>
+          <t>R$ 39,84</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1204,13 +1200,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Athena</t>
+          <t>Adara</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1220,13 +1216,13 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>019.035.750-95</t>
+          <t>534.222.838-70</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 5,20</t>
+          <t>R$ 1.184,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1234,13 +1230,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sulamita</t>
+          <t>Cigana Ana</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1250,13 +1246,13 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>074.209.057-46</t>
+          <t>704.732.282-54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 25,92</t>
+          <t>R$ 70,70</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1264,13 +1260,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cigano Andaluz</t>
+          <t>Mística Kally</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1280,7 +1276,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>023.594.097-60</t>
+          <t>746.674.400-15</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1294,13 +1290,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cigana Kayla</t>
+          <t>Alister</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1310,13 +1306,13 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>092.473.537-69</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 9,12</t>
+          <t>R$ 32,40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1324,13 +1320,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sara D’ Osum</t>
+          <t>Bruxa Agnes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1340,13 +1336,13 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>027.416.297-06</t>
+          <t>004.295.250-60</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 169,92</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1354,13 +1350,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Místico Raj</t>
+          <t>Bruxa Athena</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1370,13 +1366,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>077.814.597-25</t>
+          <t>357.234.208-28</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 38,40</t>
+          <t>R$ 588,24</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1384,13 +1380,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cigana Luziara</t>
+          <t>Cigano Paulo</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1400,13 +1396,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>092.809.268-29</t>
+          <t>060.041.077-35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 95,52</t>
+          <t>R$ 136,32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1420,7 +1416,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cigana Samara</t>
+          <t>Cigana Zaylla</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1430,7 +1426,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>480.341.128-10</t>
+          <t>269.375.448-80</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1444,13 +1440,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cigana Agatha</t>
+          <t>Vênus</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1460,13 +1456,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>119.442.576-72</t>
+          <t>038.066.452-64</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 81,60</t>
+          <t>R$ 43,85</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1474,13 +1470,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ariella do Oriente</t>
+          <t>Amabile</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1490,13 +1486,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>008.761.297-69</t>
+          <t>486.717.578-11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 99,69</t>
+          <t>R$ 168,62</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1504,13 +1500,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sacerdotisa Nix</t>
+          <t>Aretusa Cigana</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1520,13 +1516,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>022.104.229-65</t>
+          <t>063.416.498-86</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 71,08</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1534,13 +1530,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cigana Manuela</t>
+          <t>Mística Hanna</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1550,13 +1546,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>781.764.924-34</t>
+          <t>713.543.1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 475,21</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1564,13 +1560,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dama Carmen</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1580,13 +1576,13 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>130.080.156-54</t>
+          <t>105.329.709-26</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 2,94</t>
+          <t>R$ 31,20</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1594,13 +1590,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cigana Duan</t>
+          <t>Cigana Sophia</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1610,13 +1606,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>422.792.698-05</t>
+          <t>282.460.278-32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 7,20</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1624,13 +1620,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cigana Natasha</t>
+          <t>Aidê Cigana</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1640,13 +1636,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>332.110.268-43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 39,06</t>
+          <t>R$ 67,20</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1654,13 +1650,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Angelita</t>
+          <t>Alba Cigana</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1670,13 +1666,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>093.859.127-47</t>
+          <t>239.609.508-02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 38,40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1684,13 +1680,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cigana Bárbara</t>
+          <t>Ananda de Oxum</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1700,13 +1696,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>338.641.458-30</t>
+          <t>080.373.609-62</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 207,84</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1714,13 +1710,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lilith</t>
+          <t>Cigana Rosa</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1730,13 +1726,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>395.446.878-66</t>
+          <t>230.952.148-55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 41,58</t>
+          <t>R$ 28,80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1744,13 +1740,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Amy Dantalion</t>
+          <t>Ava Faro</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1760,13 +1756,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>861.369.090-49</t>
+          <t>839.062.159-20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 64,48</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1774,13 +1770,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bruxa Zoraide</t>
+          <t>Aisha Mística</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1790,13 +1786,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>004.295.250-60</t>
+          <t>333.985.298-79</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 57,96</t>
+          <t>R$ 115,20</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -1804,13 +1800,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Amabile Cigana</t>
+          <t>Elisa de Iansã</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1820,13 +1816,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>382.762.418-59</t>
+          <t>044.156.997-82</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 39,48</t>
+          <t>R$ 105,60</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -1834,13 +1830,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cigana Cassandra</t>
+          <t>Luna Cigana</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1850,13 +1846,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>078.404.617-43</t>
+          <t>103.372.017-81</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 2,94</t>
+          <t>R$ 9,12</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -1864,13 +1860,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cigano Tarim</t>
+          <t>Cigano Ameo</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1880,13 +1876,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>141.583.437-71</t>
+          <t>179.956.907-11</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 1,37</t>
+          <t>R$ 53,28</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -1894,13 +1890,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cigana Lua</t>
+          <t>Cigana Estrela da Noite</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1910,13 +1906,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>503.311.468-94</t>
+          <t>291.479.608-09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 5,04</t>
+          <t>R$ 48,96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -1924,13 +1920,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Magus</t>
+          <t>Vidente Cassandra</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1940,13 +1936,13 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>341.618.268-50</t>
+          <t>378.944.738-20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 48,51</t>
+          <t>R$ 350,88</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -1954,13 +1950,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cigana Dandara da Estrada</t>
+          <t>Cigana Sarah</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1970,13 +1966,13 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>297.430.488-55</t>
+          <t>157.707.058-50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 24,00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -1984,13 +1980,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ayla</t>
+          <t>Cigana Clara</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2000,13 +1996,13 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>095.568.707-17</t>
+          <t>427.253.498-00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 5,04</t>
+          <t>R$ 36,00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2014,13 +2010,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cigano Muller</t>
+          <t>Cigana Tamirez</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2030,13 +2026,13 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>188.503.338-22</t>
+          <t>128.576.748-99</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 5,60</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2044,13 +2040,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cigana Luz</t>
+          <t>Cigana Sarita</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2060,7 +2056,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>495.723.698-49</t>
+          <t>177.247.627-75</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2074,13 +2070,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Feiticeiro Morgan</t>
+          <t>Cigana Alzira</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2090,13 +2086,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>976.182.170-68</t>
+          <t>193.909.028-86</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 134,40</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2104,13 +2100,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Mercúrio</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2120,13 +2116,13 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>368.895.498-05</t>
+          <t>341.618.268-50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 5,46</t>
+          <t>R$ 56,68</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2134,13 +2130,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pitágoras</t>
+          <t>Amábile Mística</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2150,13 +2146,13 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>138.057.576-11</t>
+          <t>388.583.918-02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 27,56</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2164,13 +2160,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Vidente Lana</t>
+          <t>Asa Mística</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2180,13 +2176,13 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>038.066.452-64</t>
+          <t>578.217.390-49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 20,16</t>
+          <t>R$ 518,56</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2194,13 +2190,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sumaya do Oriente</t>
+          <t>Bruxa Zoraide</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2210,13 +2206,13 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>395.754.918-31</t>
+          <t>326.854.768-06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 82,68</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2224,13 +2220,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ísis</t>
+          <t>Cigana Sulamita</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2240,13 +2236,13 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>135.180.778-13</t>
+          <t>047.921.459-02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 4,48</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2254,13 +2250,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lua D´Oxum</t>
+          <t>Andrina Cigana</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2270,13 +2266,13 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>291.479.608-09</t>
+          <t>022.110.677-43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 430,08</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2284,13 +2280,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2300,13 +2296,13 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>080.146.496-05</t>
+          <t>019.642.190-00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 178,08</t>
+          <t>R$ 320,00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2314,13 +2310,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cigana Alma</t>
+          <t>Dalila</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2330,13 +2326,13 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>018.457.950-32</t>
+          <t>109.247.989-98</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 181,44</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2344,13 +2340,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Adaline</t>
+          <t>Aurélia</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2360,13 +2356,13 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>356.434.148-05</t>
+          <t>154.111.998-32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 275,60</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2374,13 +2370,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Estella</t>
+          <t>Maribel Cigana</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2390,13 +2386,13 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>128.576.748-99</t>
+          <t>469.599.548-43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 49,92</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2404,13 +2400,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dicearco</t>
+          <t>Bruxa Allana</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2420,13 +2416,13 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>163.050.176-03</t>
+          <t>343.678.880-53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 11,34</t>
+          <t>R$ 0,88</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2434,13 +2430,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cigana Zattara</t>
+          <t>Sr. Bara</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2450,13 +2446,13 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>023.594.097-60</t>
+          <t>334.089.248-21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 61,44</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -2464,13 +2460,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Aymê D Osun</t>
+          <t>Apolo</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2480,13 +2476,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>844.106.049-53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 144,41</t>
+          <t>R$ 136,32</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2494,13 +2490,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cigana Pérola</t>
+          <t>Anay</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2510,13 +2506,13 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>097.881.807-52</t>
+          <t>015.289.160-93</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 10,92</t>
+          <t>R$ 46,28</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2524,13 +2520,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pandora</t>
+          <t>Gael de Oxossi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2540,13 +2536,13 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>118.735.717-04</t>
+          <t>125.447.276-24</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 13,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2554,13 +2550,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Alba</t>
+          <t>Bruxo do Lodo</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2570,13 +2566,13 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>577.198.268-12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 75,60</t>
+          <t>R$ 63,96</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2584,13 +2580,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cigana Crystal</t>
+          <t>Matias</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2600,13 +2596,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>352.663.778-44</t>
+          <t>360.387.948-16</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 20,16</t>
+          <t>R$ 71,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -2614,13 +2610,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gaya Cigana</t>
+          <t>Cigano Yaron</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2630,13 +2626,13 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>072.879.826-33</t>
+          <t>421.651.898-29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 0,96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2644,13 +2640,13 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zafira</t>
+          <t>Mística Brigitte</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2660,13 +2656,13 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>373.107.748-50</t>
+          <t>454.952.008-61</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 79,68</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -2674,13 +2670,13 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Yara</t>
+          <t>Cigano Tássio</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2690,13 +2686,13 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>103.002.409-02</t>
+          <t>092.809.268-29</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 70,00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2704,13 +2700,13 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cigana Madalena</t>
+          <t>Adelina</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2720,13 +2716,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>070.343.957-05</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 145,08</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -2734,13 +2730,13 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cronos Tarólogo</t>
+          <t>Cigana Angel</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2750,13 +2746,13 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>138.057.766-75</t>
+          <t>472.320.688-40</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 35,04</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2764,13 +2760,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cigana Salomé</t>
+          <t>André</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2780,13 +2776,13 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>671.468.217-49</t>
+          <t>127.799.609-14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 42,00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -2794,13 +2790,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Taróloga Évora</t>
+          <t>Vidente Imperatriz</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2810,13 +2806,13 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>065.077.297-20</t>
+          <t>319.428.618-85</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 69,44</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -2824,13 +2820,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cigano Ramiro</t>
+          <t>Macha</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2840,1666 +2836,16 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>422.797.918-89</t>
+          <t>286.890.358-42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 66,56</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Fréia</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>060.513.704-80</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Cigana Jamile</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>048.056.417-28</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>R$ 32,38</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Adara</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>534.222.838-70</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>R$ 78,54</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Cigana Mariah</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>009.143.967-14</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Madalenah</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>403.291.178-90</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Abele</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>109.284.207-10</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>083.156.417-27</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>R$ 3,36</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Cigano Saulo</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>345.169.758-07</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Cigana do Ouro</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>163.816.018-09</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Cigana Carmellita</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>073.183.556-51</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Wladimir</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>156.442.147-37</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Cigana Holanda</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>718.258.034-98</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Wilka</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>400.637.188-9</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Taróloga Milly</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>427.253.498-00</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Sara Cornalina</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>381.517.928-92</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>R$ 18,48</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Niina</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>137.195.037-71</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Théo</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>094.492.653-30</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Esther</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>028.579.121-45</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Frigga Cigana</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>381.683.658-52</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>R$ 5,04</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Amaira Cartomante</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>117.255.287-89</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>265</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Cigana de Padilha</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>704.732.282-54</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>R$ 83,16</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Amaya</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>844.106.049-53</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>R$ 213,69</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Mirela Dourada</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>054.335.118-12</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>R$ 3,78</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Thata Hindi</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>382.109.708-60</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Hanna</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>104.827.449-79</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Dalila</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>109.247.989-98</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>R$ 56,70</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Mística Kali</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>129.447.526-69</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Aguida Cigana</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>239.609.508-02</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>R$ 91,14</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Cigana Jasmin</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>480.141.538-55</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>R$ 7,28</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Cigana Rosita</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>152.152.156-17</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>276</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Soha</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>230.952.148-55</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>R$ 15,96</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Cigana Sulamita</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>058.874.847-12</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Cigana das Rosas Vermelhas</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>013.734.020-67</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Alma</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>839.062.159-20</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>R$ 79,94</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Cigana da Estrada</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>408.408.878-17</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Cigana Aylla</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>372.230.918-27</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>R$ 27,30</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Rosa Padilha</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>329.206.948-39</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>R$ 8,93</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Ayrah</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>317.770.208-08</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Amala</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>904.393.251-53</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>R$ 30,24</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Brisa</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>146.681.777-17</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>R$ 3,36</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Mago Gabriel</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>170.718.756-85</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>R$ 2,10</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Cigana Celene</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>044.156.997-82</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>R$ 25,20</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Cleópatra Cigana</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>095.542.319-89</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>R$ 6,72</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Cigano Jozsef</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>143.955.286-00</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>R$ 47,46</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Cigana Sarah</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>160.152.416-16</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>R$ 13,44</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Mira</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>453.094.748-38</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>R$ 18,06</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>054.335.118-12</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>R$ 45,57</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Allan D`Oxala</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>075.687.955-86</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>R$ 3,36</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Agatha</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>041.449.259-51</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>R$ 89,04</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Rosa vermelha</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>060.938.735-95</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>R$ 6,30</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>André</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>127.799.609-14</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>R$ 37,80</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Rafael D´Ogum</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>170.349.216-10</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>R$ 20,16</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Maria Navalha</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>006.877.098-73</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>R$ 27,84</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Mari Oráculo Cigano</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>051.928.157-89</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>R$ 2,94</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Astarte</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>462.697.368-03</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/arquivo.xlsx
+++ b/project/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Agatha Sensitiva</t>
+          <t>testeatt1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,15 +502,11 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>140.266.778-77</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 380,12</t>
+          <t>R$ 3,00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -518,13 +514,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aylla</t>
+          <t>Cigana Rubi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,13 +530,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>520.992.078-01</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$ 150,12</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -548,13 +544,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Consultas Avaliativas</t>
+          <t>Cigana Luz</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -562,11 +558,15 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>520.992.078-01</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ -3,50</t>
+          <t>R$ 96,40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -574,13 +574,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Safira</t>
+          <t>Maria da Paz</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -590,13 +590,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>128.318.037-56</t>
+          <t>053.249.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 108,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -604,13 +604,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cigana Helena</t>
+          <t>Azira de Oya</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>420.097.118-66</t>
+          <t>031.637.788-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -634,13 +634,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>César</t>
+          <t>Wilka</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -650,13 +650,13 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>135.629.258-59</t>
+          <t>400.637.918-89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 44,16</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -664,13 +664,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Anitta</t>
+          <t>Wladimir</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -680,13 +680,13 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>336.455.648-29</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 958,88</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -694,13 +694,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Inaê</t>
+          <t>Bel</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -710,13 +710,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>140.003.00</t>
+          <t>275.114.678-30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 173,16</t>
+          <t>R$ 612,40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -724,13 +724,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Castiel</t>
+          <t>Cigana Nyara</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -740,13 +740,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>341.635.858-93</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 267,36</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -754,13 +754,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cigana Cristal</t>
+          <t>Kauany Oxum</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,13 +770,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>514.672.528-40</t>
+          <t>031.637.788-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 105,12</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -784,13 +784,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>testeatt1 - NÃO REMOVER</t>
+          <t>Madalena Cigana</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -798,11 +798,15 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>377.875.738-56</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ -12,00</t>
+          <t>R$ 293,60</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -810,13 +814,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carmencita</t>
+          <t>Estrela de Iemanjá</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -826,13 +830,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>833.172.877-72</t>
+          <t>006.877.098-73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 338,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -840,13 +844,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cigana Clarissa</t>
+          <t>Morgana</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -856,13 +860,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>040.725.688-13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 134,40</t>
+          <t>R$ 351,20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -870,13 +874,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Merlia</t>
+          <t>Anaya</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -886,13 +890,13 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>107.833.089-14</t>
+          <t>341.635.858-93</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 266,24</t>
+          <t>R$ 782,80</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -900,13 +904,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cigano Belmiro</t>
+          <t>Antonella</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -916,13 +920,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>050.698.125-80</t>
+          <t>218.989.348-86</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 304,80</t>
+          <t>R$ 475,20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -930,13 +934,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cigana Carmem</t>
+          <t>Cigana Dara</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -946,13 +950,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>904.393.251-53</t>
+          <t>217.578.898-92</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 43,20</t>
+          <t>R$ 2.624,80</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -960,13 +964,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bruxa Celeste</t>
+          <t>Abbell D´Ogunjá</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -976,13 +980,13 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>444.277.598-23</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 46,08</t>
+          <t>R$ 430,40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -990,13 +994,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Cigana Mirian</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1006,13 +1010,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>042.734.029-20</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 93,12</t>
+          <t>R$ 254,80</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1020,13 +1024,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Natasha Cigana</t>
+          <t>Ashanty D´Oyá</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1036,13 +1040,13 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 167,44</t>
+          <t>R$ 156,00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1050,13 +1054,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rosa Maria</t>
+          <t>Florisbela</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1066,13 +1070,13 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>104.767.004-69</t>
+          <t>446.754.958-77</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 596,44</t>
+          <t>R$ 168,00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1080,13 +1084,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mística Pandora</t>
+          <t>Xamã Kanaã</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1096,13 +1100,13 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>443.012.598-80</t>
+          <t>293.767.728-22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 367,60</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1110,13 +1114,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Odara</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1126,13 +1130,13 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>347.851.658-71</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 281,84</t>
+          <t>R$ 684,40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1140,13 +1144,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Xamã Tarólogo</t>
+          <t>Kessia</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1156,13 +1160,13 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>180.743.808-23</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 42,64</t>
+          <t>R$ 212,40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1170,13 +1174,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cigana Delins</t>
+          <t>Cigana Lua Negra</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1186,13 +1190,13 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>367.219.298-80</t>
+          <t>019.241.709-65</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 39,84</t>
+          <t>R$ 204,00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1200,13 +1204,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Adara</t>
+          <t>Cigana Sarah</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1216,13 +1220,13 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>534.222.838-70</t>
+          <t>839.076.610-87</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 1.184,00</t>
+          <t>R$ 273,60</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1230,13 +1234,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cigana Ana</t>
+          <t>Katarina de Ogunté</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1246,13 +1250,13 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>704.732.282-54</t>
+          <t>444.089.138-12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 70,70</t>
+          <t>R$ 283,20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1260,13 +1264,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mística Kally</t>
+          <t>Alba Cigana</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1276,13 +1280,13 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>746.674.400-15</t>
+          <t>022.110.677-43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 1.391,60</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1290,13 +1294,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Alister</t>
+          <t>Cigana Zafira</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1306,13 +1310,13 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>092.473.537-69</t>
+          <t>111.993.457-50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 32,40</t>
+          <t>R$ 1.392,40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1320,13 +1324,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bruxa Agnes</t>
+          <t>Cigana Artemis</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1336,13 +1340,13 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>004.295.250-60</t>
+          <t>699.124.241-15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 169,92</t>
+          <t>R$ 154,88</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1350,13 +1354,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bruxa Athena</t>
+          <t>Cigana Jussara</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1366,13 +1370,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>357.234.208-28</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 588,24</t>
+          <t>R$ 419,20</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1380,13 +1384,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cigano Paulo</t>
+          <t>Cigana Kiara</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1396,13 +1400,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>060.041.077-35</t>
+          <t>103.688.977-70</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 136,32</t>
+          <t>R$ 1.516,00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1410,13 +1414,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cigana Zaylla</t>
+          <t>Esmeralda</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1426,13 +1430,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>269.375.448-80</t>
+          <t>019.035.750-95</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 253,60</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1440,13 +1444,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Vênus</t>
+          <t>Abby</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1456,13 +1460,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>038.066.452-64</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 43,85</t>
+          <t>R$ 127,60</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1470,13 +1474,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Amabile</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1486,13 +1490,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>486.717.578-11</t>
+          <t>343.850.048-54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 168,62</t>
+          <t>R$ 462,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1500,13 +1504,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aretusa Cigana</t>
+          <t>Lívia</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1516,13 +1520,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>063.416.498-86</t>
+          <t>074.209.057-46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 71,08</t>
+          <t>R$ 260,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1530,13 +1534,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mística Hanna</t>
+          <t>Thoth</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1546,13 +1550,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>713.543.1</t>
+          <t>341.618.268-50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 475,21</t>
+          <t>R$ 246,80</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1560,13 +1564,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Alisson</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1576,13 +1580,13 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>105.329.709-26</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 31,20</t>
+          <t>R$ 81,20</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1590,13 +1594,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cigana Sophia</t>
+          <t>Bruxa Luz</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1606,13 +1610,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>282.460.278-32</t>
+          <t>014.304.290-46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 7,20</t>
+          <t>R$ 144,80</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1620,13 +1624,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aidê Cigana</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1636,13 +1640,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>332.110.268-43</t>
+          <t>333.985.298-79</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 67,20</t>
+          <t>R$ 252,24</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1650,13 +1654,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Alba Cigana</t>
+          <t>Esther</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1666,13 +1670,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>239.609.508-02</t>
+          <t>165.876.088-33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 38,40</t>
+          <t>R$ 2.050,80</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1680,13 +1684,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ananda de Oxum</t>
+          <t>Cigana Elisa</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1696,13 +1700,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>395.446.878-66</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 207,84</t>
+          <t>R$ 1.332,00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1710,13 +1714,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cigana Rosa</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1726,13 +1730,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>230.952.148-55</t>
+          <t>063.416.498-86</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 28,80</t>
+          <t>R$ 526,40</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1740,13 +1744,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ava Faro</t>
+          <t>Amisha Cigana</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1756,13 +1760,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>839.062.159-20</t>
+          <t>239.609.508-02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 64,48</t>
+          <t>R$ 326,00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1770,13 +1774,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aisha Mística</t>
+          <t>Amabile</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1786,13 +1790,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>333.985.298-79</t>
+          <t>486.717.578-11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 115,20</t>
+          <t>R$ 644,00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -1800,13 +1804,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Elisa de Iansã</t>
+          <t>Cigana Kali</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1816,13 +1820,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>044.156.997-82</t>
+          <t>503.311.468-94</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 105,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -1830,13 +1834,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Luna Cigana</t>
+          <t>Stella</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1846,13 +1850,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>103.372.017-81</t>
+          <t>022.871.465-63</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 9,12</t>
+          <t>R$ 760,40</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -1860,13 +1864,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cigano Ameo</t>
+          <t>Adallyn</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1876,13 +1880,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>179.956.907-11</t>
+          <t>322.072.188-56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 53,28</t>
+          <t>R$ 65,60</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -1890,13 +1894,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cigana Estrela da Noite</t>
+          <t>Aristóteles</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1906,13 +1910,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>291.479.608-09</t>
+          <t>138.057.576-11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 48,96</t>
+          <t>R$ 109,60</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -1920,13 +1924,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vidente Cassandra</t>
+          <t>Bruxa Ariel</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1936,13 +1940,13 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>378.944.738-20</t>
+          <t>384.172.508-24</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 350,88</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -1950,13 +1954,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cigana Sarah</t>
+          <t>Agatha Cigana</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1966,13 +1970,13 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>157.707.058-50</t>
+          <t>382.762.418-59</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R$ 24,00</t>
+          <t>R$ 1.765,60</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -1980,13 +1984,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cigana Clara</t>
+          <t>Ana D´Oxum</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2002,7 +2006,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 36,00</t>
+          <t>R$ 247,60</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2010,13 +2014,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cigana Tamirez</t>
+          <t>Selton</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2026,13 +2030,13 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>128.576.748-99</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 5,60</t>
+          <t>R$ 66,80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2040,13 +2044,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cigana Sarita</t>
+          <t>Magnólia</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2056,13 +2060,13 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>177.247.627-75</t>
+          <t>360.387.948-16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 291,20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2070,13 +2074,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cigana Alzira</t>
+          <t>Rosa Mistica</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2086,13 +2090,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>193.909.028-86</t>
+          <t>098.092.682-9</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 134,40</t>
+          <t>R$ 139,20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2100,13 +2104,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mercúrio</t>
+          <t>Cigana Clara</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2116,13 +2120,13 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>341.618.268-50</t>
+          <t>400.637.918-89</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 56,68</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2130,13 +2134,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Amábile Mística</t>
+          <t>Cigana Afrodite</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2146,13 +2150,13 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>388.583.918-02</t>
+          <t>435.504.098-42</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 27,56</t>
+          <t>R$ 356,80</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2160,13 +2164,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Asa Mística</t>
+          <t>Cigana Lara</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2176,13 +2180,13 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>578.217.390-49</t>
+          <t>395.446.868-94</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 518,56</t>
+          <t>R$ 1.214,80</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2190,13 +2194,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bruxa Zoraide</t>
+          <t>Paloma</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2206,13 +2210,13 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>326.854.768-06</t>
+          <t>018.457.950-32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 82,68</t>
+          <t>R$ 357,20</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2220,13 +2224,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cigana Sulamita</t>
+          <t>Bruxa Fortune</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2236,13 +2240,13 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>047.921.459-02</t>
+          <t>073.378.647-28</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 4,48</t>
+          <t>R$ 104,40</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2250,13 +2254,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Andrina Cigana</t>
+          <t>Angel Cigano</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2266,13 +2270,13 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>022.110.677-43</t>
+          <t>332.179.498-54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 430,08</t>
+          <t>R$ 275,20</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2280,13 +2284,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2296,13 +2300,13 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>019.642.190-00</t>
+          <t>131.946.738-58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 320,00</t>
+          <t>R$ 413,60</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2310,13 +2314,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dalila</t>
+          <t>Alaíde</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2326,13 +2330,13 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>109.247.989-98</t>
+          <t>175.824.068-77</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 181,44</t>
+          <t>R$ 186,80</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2340,13 +2344,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aurélia</t>
+          <t>Cigano Eros</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2356,13 +2360,13 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>154.111.998-32</t>
+          <t>528.535.238-02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 275,60</t>
+          <t>R$ 59,20</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2370,13 +2374,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Maribel Cigana</t>
+          <t>Cigano Higor</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2386,13 +2390,13 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>469.599.548-43</t>
+          <t>111.993.457-50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 49,92</t>
+          <t>R$ 347,60</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2400,13 +2404,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bruxa Allana</t>
+          <t>Cigana Judith</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2416,13 +2420,13 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>343.678.880-53</t>
+          <t>421.651.898-29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 0,88</t>
+          <t>R$ 104,40</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2430,13 +2434,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sr. Bara</t>
+          <t>Cigana do Ouro</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2446,13 +2450,13 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>334.089.248-21</t>
+          <t>163.816.018-09</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 61,44</t>
+          <t>R$ 244,80</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -2460,13 +2464,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Apolo</t>
+          <t>Ashia</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2476,13 +2480,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>844.106.049-53</t>
+          <t>469.599.548-43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 136,32</t>
+          <t>R$ 169,60</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2490,13 +2494,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Anay</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2506,13 +2510,13 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>015.289.160-93</t>
+          <t>109.247.989-98</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 46,28</t>
+          <t>R$ 474,80</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2520,13 +2524,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gael de Oxossi</t>
+          <t>Cigano Eragon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2536,13 +2540,13 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>125.447.276-24</t>
+          <t>188.603.338-22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 13,00</t>
+          <t>R$ 24,80</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2550,13 +2554,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bruxo do Lodo</t>
+          <t>Cigana Lilith</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2566,13 +2570,13 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>577.198.268-12</t>
+          <t>104.827.449-79</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 63,96</t>
+          <t>R$ 122,80</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2580,13 +2584,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Matias</t>
+          <t>Shaphira Cigana</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2596,13 +2600,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>360.387.948-16</t>
+          <t>095.272.348-40</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 71,00</t>
+          <t>R$ 353,20</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -2610,13 +2614,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cigano Yaron</t>
+          <t>Luna</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2626,13 +2630,13 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>421.651.898-29</t>
+          <t>038.066.452-64</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 0,96</t>
+          <t>R$ 94,40</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2640,13 +2644,13 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mística Brigitte</t>
+          <t>Cartomante Padilha</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2656,13 +2660,13 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>454.952.008-61</t>
+          <t>457.208.028-35</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R$ 79,68</t>
+          <t>R$ 531,60</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -2670,13 +2674,13 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cigano Tássio</t>
+          <t>Dalila</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2686,13 +2690,13 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>092.809.268-29</t>
+          <t>070.343.957-05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R$ 70,00</t>
+          <t>R$ 108,40</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2700,13 +2704,13 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Adelina</t>
+          <t>Cigana Holanda</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2716,13 +2720,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>718.258.034-98</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R$ 145,08</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -2730,13 +2734,13 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cigana Angel</t>
+          <t>Cigana D´Ypondá</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2746,13 +2750,13 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>472.320.688-40</t>
+          <t>090.151.501-92</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R$ 35,04</t>
+          <t>R$ 172,00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2760,13 +2764,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>André</t>
+          <t>Cleópatra</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2776,13 +2780,13 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>127.799.609-14</t>
+          <t>469.272.278-90</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R$ 42,00</t>
+          <t>R$ 126,40</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -2790,13 +2794,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Vidente Imperatriz</t>
+          <t>Ananda Flor</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2806,13 +2810,13 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>319.428.618-85</t>
+          <t>318.212.428-58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R$ 69,44</t>
+          <t>R$ 182,72</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -2820,13 +2824,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Macha</t>
+          <t>Minerva</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2836,16 +2840,1846 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>286.890.358-42</t>
+          <t>369.267.558-50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R$ 66,56</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Seraphina Malga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>944.666.709-78</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>R$ 677,84</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cigana do Amor</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>169.284.756-25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Dafne</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>400.637.918-89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Dona Mariana</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>704.732.282-54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>R$ 500,80</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Dionisio Cigano</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>163.050.176-03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>R$ 157,92</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ametista</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>080.373.609-62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>R$ 506,40</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rubi</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>420.097.118-66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>R$ 1,60</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Amaya</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>844.106.049-53</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>R$ 594,80</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Meredith</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>054.335.118-12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>R$ 454,40</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cigana Ohana</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>446.754.958-77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>R$ 193,20</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cigana Wlavira</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>339.200.285-20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>R$ 268,00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ada</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>839.062.159-20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>R$ 1.373,76</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Jorge D´ Logun Edé</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>371.242.198-25</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Anye</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>400.637.918-89</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>R$ 20,80</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cigana Rosita</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>056.593.327-22</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>R$ 437,60</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cigana Juanita</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>047.921.459-02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>R$ 4,80</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cigana da Noite</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>291.479.608-09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>R$ 179,60</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Viviana</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>044.156.997-82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>R$ 88,00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Dama</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>317.770.208-08</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>R$ 20,40</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Cigana Estrela</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>381.683.658-52</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>R$ 106,40</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Angelina Vidente</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>731.265.861-04</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>R$ 338,00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Cigana Andressa</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>138.380.366-89</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>R$ 24,40</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cigana Shanty</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>331.963.768-18</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>R$ 123,20</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Eremita Lunar</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>109.433.009-40</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>R$ 44,40</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cigana Serena</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>903.303.907-91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>R$ 54,00</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Jade</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>128.576.748-99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>R$ 188,80</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>101.519.816-39</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>R$ 145,60</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Luna Mystic</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>183.070.347-10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>R$ 60,40</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Indiara</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>151.978.928-97</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>R$ 406,80</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Kênia Taróloga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>011.487.248-18</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>R$ 153,60</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Bábà Hércules</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>399.267.818-02</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>R$ 54,80</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Davina</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>453.094.748-38</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>R$ 174,00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Taróloga Esperança</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>319.428.618-85</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>R$ 316,64</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Llana</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>160.152.416-16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>R$ 68,00</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cigano Maximmus</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>213.619.978-18</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>R$ 52,40</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Flor de Liz</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>361.394.948-26</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>R$ 19,60</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Esmè</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>456.893.368-40</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>R$ 132,80</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Van de Luz</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>075.687.955-86</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>R$ 54,00</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Zaylla</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>269.375.448-80</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>R$ 91,20</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Amennda</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>400.637.918-89</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>R$ 310,40</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Khamael</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>063.586.385-56</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>R$ 706,40</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Artemio</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>179.956.907-11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>R$ 385,20</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Místico Yago</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>248.754.848-79</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>R$ 182,80</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Cigana Iris</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>091.851.919-57</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>R$ 15,60</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Calíope</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>041.449.259-51</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>R$ 643,60</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Jasmyne</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>324.505.018-60</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>R$ 146,00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Alaine Cigana</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>006.619.678-75</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>R$ 487,60</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Amenadiel</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>127.799.609-14</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>R$ 849,12</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Bella Donna</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>861.369.090-49</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>R$ 172,80</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rosa Vermelha</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>454.952.008-61</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>R$ 585,60</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Yvetta Dante</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>106.705.107-42</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>R$ 6,00</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Walkiria</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>892.859.640-87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>R$ 598,40</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Adália Médium</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>442.126.768-69</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>R$ 662,00</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>7 Saias</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>226.786.878-48</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>R$ 442,00</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Bianca Médium</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>006.877.098-73</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>R$ 403,60</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Sensitiva Tereza</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>170.349.216-10</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>R$ 236,40</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Alya Luz</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>520.992.078-01</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>R$ 25,20</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Cigano Stefan</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>143.955.286-00</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>R$ 67,20</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Abigail</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>410.310.468-60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>R$ 102,40</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Violeta</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>000.000.000-00</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>R$ 43,60</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>033.471.880-55</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>R$ 17,20</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/arquivo.xlsx
+++ b/project/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>testeatt1</t>
+          <t>Cigana Amanda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,11 +502,15 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>189.015.628-04</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 3,00</t>
+          <t>R$ 264,88</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -514,13 +518,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cigana Rubi</t>
+          <t>Higor D`Oxala</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -530,13 +534,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>420.097.118-66</t>
+          <t>341.635.858-93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 469,96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -544,13 +548,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cigana Luz</t>
+          <t>Médium Amora</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -560,13 +564,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>520.992.078-01</t>
+          <t>294.298.332</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 96,40</t>
+          <t>R$ 199,92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -574,13 +578,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maria da Paz</t>
+          <t>Bridget</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -590,13 +594,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>053.249.17</t>
+          <t>268.869.558-45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 14,88</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -604,13 +608,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Azira de Oya</t>
+          <t>Kabila</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -634,13 +638,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wilka</t>
+          <t>Esmeralda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -664,13 +668,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wladimir</t>
+          <t>testeatt1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -678,11 +682,7 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>520.992.078-01</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -694,13 +694,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bel</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -710,13 +710,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>275.114.678-30</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 612,40</t>
+          <t>R$ 48,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -724,13 +724,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cigana Nyara</t>
+          <t>Beatrice de Yemanjá</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -740,13 +740,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>420.097.118-66</t>
+          <t>006.877.098-73</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 97,24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -754,13 +754,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kauany Oxum</t>
+          <t>Radina</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,13 +770,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>031.637.788-01</t>
+          <t>703.439.570-5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ -11,20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -784,13 +784,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Madalena Cigana</t>
+          <t>Cigana Safira</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -800,13 +800,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>377.875.738-56</t>
+          <t>480.341.128-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 293,60</t>
+          <t>R$ -20,16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -814,13 +814,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Estrela de Iemanjá</t>
+          <t>Anna Médium</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -830,13 +830,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>006.877.098-73</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 272,48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -844,13 +844,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Morgana</t>
+          <t>Cigana Livia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -860,13 +860,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>040.725.688-13</t>
+          <t>844.258.490-00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 351,20</t>
+          <t>R$ 417,48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -874,13 +874,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Anaya</t>
+          <t>Sensitiva Quitéria</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -890,13 +890,13 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>341.635.858-93</t>
+          <t>221.006.378-78</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 782,80</t>
+          <t>R$ 206,50</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -904,13 +904,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Antonella</t>
+          <t>Allano D´Ogum</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -920,13 +920,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>218.989.348-86</t>
+          <t>478.756.405-63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 475,20</t>
+          <t>R$ 199,68</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -934,13 +934,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cigana Dara</t>
+          <t>Cigana Sol</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -950,13 +950,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>217.578.898-92</t>
+          <t>991.379.097-20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 2.624,80</t>
+          <t>R$ 51,10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -964,13 +964,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Abbell D´Ogunjá</t>
+          <t>Cigana Consuela</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -980,13 +980,13 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>480.141.538-55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 430,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -994,13 +994,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cigana Mirian</t>
+          <t>Kyara</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1010,13 +1010,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>040.725.688-13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 254,80</t>
+          <t>R$ 51,84</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1024,13 +1024,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ashanty D´Oyá</t>
+          <t>Cigana Rosa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1040,13 +1040,13 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>859.082.159-53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 156,00</t>
+          <t>R$ 55,68</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1054,13 +1054,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Florisbela</t>
+          <t>Sarika Clarividente</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1070,13 +1070,13 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>446.754.958-77</t>
+          <t>483.724.985-04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 168,00</t>
+          <t>R$ 60,84</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1084,13 +1084,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Xamã Kanaã</t>
+          <t>Mistica Brida</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1100,13 +1100,13 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>293.767.728-22</t>
+          <t>447.198.599-0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R$ 367,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1114,13 +1114,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Odara</t>
+          <t>Carmem</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1130,13 +1130,13 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>347.851.658-71</t>
+          <t>000.000.000-00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 684,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1144,13 +1144,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kessia</t>
+          <t>Adna Cigana</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1160,13 +1160,13 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>022.110.677-43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 212,40</t>
+          <t>R$ 189,12</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1174,13 +1174,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cigana Lua Negra</t>
+          <t>Cigana Briza</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1190,13 +1190,13 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>019.241.709-65</t>
+          <t>103.688.977-70</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 204,00</t>
+          <t>R$ 71,04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1204,13 +1204,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cigana Sarah</t>
+          <t>Athena</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1220,13 +1220,13 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>839.076.610-87</t>
+          <t>019.035.750-95</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 273,60</t>
+          <t>R$ 5,20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1234,13 +1234,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Katarina de Ogunté</t>
+          <t>Sulamita</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1250,13 +1250,13 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>444.089.138-12</t>
+          <t>074.209.057-46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 283,20</t>
+          <t>R$ 30,24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1264,13 +1264,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alba Cigana</t>
+          <t>Cigano Andaluz</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1280,13 +1280,13 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>022.110.677-43</t>
+          <t>023.594.097-60</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 1.391,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1294,13 +1294,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cigana Zafira</t>
+          <t>Cigana Kayla</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1310,13 +1310,13 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>111.993.457-50</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 1.392,40</t>
+          <t>R$ 9,12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1324,13 +1324,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cigana Artemis</t>
+          <t>Sara D’ Osum</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1340,13 +1340,13 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>699.124.241-15</t>
+          <t>027.416.297-06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 154,88</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1354,13 +1354,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cigana Jussara</t>
+          <t>Místico Raj</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1370,13 +1370,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>077.814.597-25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 419,20</t>
+          <t>R$ 52,80</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1384,13 +1384,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cigana Kiara</t>
+          <t>Cigana Luziara</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1400,13 +1400,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>103.688.977-70</t>
+          <t>092.809.268-29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 1.516,00</t>
+          <t>R$ 105,12</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1414,13 +1414,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>Cigana Samara</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1430,13 +1430,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>019.035.750-95</t>
+          <t>480.341.128-10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 253,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1444,13 +1444,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Abby</t>
+          <t>Cigana Agatha</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1460,13 +1460,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>520.992.078-01</t>
+          <t>119.442.576-72</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 127,60</t>
+          <t>R$ 100,32</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1474,13 +1474,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Ariella do Oriente</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1490,13 +1490,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>343.850.048-54</t>
+          <t>008.761.297-69</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 462,00</t>
+          <t>R$ 167,96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1504,13 +1504,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lívia</t>
+          <t>Sacerdotisa Nix</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1520,13 +1520,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>074.209.057-46</t>
+          <t>022.104.229-65</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 260,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1534,13 +1534,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Thoth</t>
+          <t>Cigana Manuela</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1550,13 +1550,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>341.618.268-50</t>
+          <t>781.764.924-34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 246,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1564,13 +1564,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Alisson</t>
+          <t>Dama Carmen</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1580,13 +1580,13 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>135.629.258-59</t>
+          <t>130.080.156-54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 81,20</t>
+          <t>R$ 2,94</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1594,13 +1594,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bruxa Luz</t>
+          <t>Cigana Duan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1610,13 +1610,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>014.304.290-46</t>
+          <t>422.792.698-05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 144,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1624,13 +1624,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Cigana Natasha</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1640,13 +1640,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>333.985.298-79</t>
+          <t>131.946.738-58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 252,24</t>
+          <t>R$ 56,70</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1654,13 +1654,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Esther</t>
+          <t>Angelita</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1670,13 +1670,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>165.876.088-33</t>
+          <t>093.859.127-47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 2.050,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1684,13 +1684,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cigana Elisa</t>
+          <t>Cigana Bárbara</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1700,13 +1700,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>395.446.878-66</t>
+          <t>338.641.458-30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 1.332,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1714,13 +1714,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Alma</t>
+          <t>Lilith</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1730,13 +1730,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>063.416.498-86</t>
+          <t>395.446.878-66</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 526,40</t>
+          <t>R$ 41,58</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1744,13 +1744,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Amisha Cigana</t>
+          <t>Amy Dantalion</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1760,13 +1760,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>239.609.508-02</t>
+          <t>861.369.090-49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 326,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1774,13 +1774,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Amabile</t>
+          <t>Bruxa Zoraide</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1790,13 +1790,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>486.717.578-11</t>
+          <t>004.295.250-60</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 644,00</t>
+          <t>R$ 75,18</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -1804,13 +1804,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cigana Kali</t>
+          <t>Amabile Cigana</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1820,13 +1820,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>503.311.468-94</t>
+          <t>382.762.418-59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 39,48</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -1834,13 +1834,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Stella</t>
+          <t>Cigana Cassandra</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1850,13 +1850,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>022.871.465-63</t>
+          <t>078.404.617-43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 760,40</t>
+          <t>R$ 2,94</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -1864,13 +1864,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Adallyn</t>
+          <t>Cigano Tarim</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1880,13 +1880,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>322.072.188-56</t>
+          <t>141.583.437-71</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 65,60</t>
+          <t>R$ 1,37</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -1894,13 +1894,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Aristóteles</t>
+          <t>Cigana Lua</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1910,13 +1910,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>138.057.576-11</t>
+          <t>503.311.468-94</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 109,60</t>
+          <t>R$ 5,04</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -1924,13 +1924,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bruxa Ariel</t>
+          <t>Magus</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1940,13 +1940,13 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>384.172.508-24</t>
+          <t>341.618.268-50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 55,37</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -1954,13 +1954,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Agatha Cigana</t>
+          <t>Cigana Dandara da Estrada</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1970,13 +1970,13 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>382.762.418-59</t>
+          <t>297.430.488-55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R$ 1.765,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -1984,13 +1984,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ana D´Oxum</t>
+          <t>Ayla</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2000,13 +2000,13 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>427.253.498-00</t>
+          <t>095.568.707-17</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 247,60</t>
+          <t>R$ 5,04</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2014,13 +2014,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Selton</t>
+          <t>Cigano Muller</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2030,13 +2030,13 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>135.629.258-59</t>
+          <t>188.503.338-22</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 66,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2044,13 +2044,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Magnólia</t>
+          <t>Cigana Luz</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2060,13 +2060,13 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>360.387.948-16</t>
+          <t>495.723.698-49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 291,20</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2074,13 +2074,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rosa Mistica</t>
+          <t>Feiticeiro Morgan</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2090,13 +2090,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>098.092.682-9</t>
+          <t>976.182.170-68</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 139,20</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2104,13 +2104,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cigana Clara</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2120,13 +2120,13 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>400.637.918-89</t>
+          <t>368.895.498-05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 9,24</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2134,13 +2134,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cigana Afrodite</t>
+          <t>Pitágoras</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2150,13 +2150,13 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>435.504.098-42</t>
+          <t>138.057.576-11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 356,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2164,13 +2164,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cigana Lara</t>
+          <t>Vidente Lana</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2180,13 +2180,13 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>395.446.868-94</t>
+          <t>038.066.452-64</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 1.214,80</t>
+          <t>R$ 20,16</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2194,13 +2194,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Paloma</t>
+          <t>Sumaya do Oriente</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2210,13 +2210,13 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>018.457.950-32</t>
+          <t>395.754.918-31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 357,20</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2224,13 +2224,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bruxa Fortune</t>
+          <t>Ísis</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2240,13 +2240,13 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>073.378.647-28</t>
+          <t>135.180.778-13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 104,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2254,13 +2254,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Angel Cigano</t>
+          <t>Lua D´Oxum</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2270,13 +2270,13 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>332.179.498-54</t>
+          <t>291.479.608-09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 275,20</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2284,13 +2284,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2300,13 +2300,13 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>080.146.496-05</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 413,60</t>
+          <t>R$ 178,08</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2314,13 +2314,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Alaíde</t>
+          <t>Cigana Alma</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2330,13 +2330,13 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>175.824.068-77</t>
+          <t>018.457.950-32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 186,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2344,13 +2344,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cigano Eros</t>
+          <t>Adaline</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2360,13 +2360,13 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>528.535.238-02</t>
+          <t>356.434.148-05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 59,20</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2374,13 +2374,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cigano Higor</t>
+          <t>Estella</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2390,13 +2390,13 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>111.993.457-50</t>
+          <t>128.576.748-99</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 347,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2404,13 +2404,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cigana Judith</t>
+          <t>Dicearco</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2420,13 +2420,13 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>421.651.898-29</t>
+          <t>163.050.176-03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 104,40</t>
+          <t>R$ 11,34</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2434,13 +2434,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cigana do Ouro</t>
+          <t>Cigana Zattara</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2450,13 +2450,13 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>163.816.018-09</t>
+          <t>023.594.097-60</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 244,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -2464,13 +2464,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ashia</t>
+          <t>Aymê D Osun</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2480,13 +2480,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>469.599.548-43</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 169,60</t>
+          <t>R$ 161,21</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2494,13 +2494,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Cigana Pérola</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2510,13 +2510,13 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>109.247.989-98</t>
+          <t>097.881.807-52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 474,80</t>
+          <t>R$ 17,64</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2524,13 +2524,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cigano Eragon</t>
+          <t>Pandora</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2540,13 +2540,13 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>188.603.338-22</t>
+          <t>118.735.717-04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 24,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2554,13 +2554,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cigana Lilith</t>
+          <t>Alba</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2570,13 +2570,13 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>104.827.449-79</t>
+          <t>080.373.609-62</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 122,80</t>
+          <t>R$ 78,12</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2584,13 +2584,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Shaphira Cigana</t>
+          <t>Cigana Crystal</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2600,13 +2600,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>095.272.348-40</t>
+          <t>352.663.778-44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 353,20</t>
+          <t>R$ 20,16</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -2614,13 +2614,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>Gaya Cigana</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2630,13 +2630,13 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>038.066.452-64</t>
+          <t>072.879.826-33</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 94,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2644,13 +2644,13 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cartomante Padilha</t>
+          <t>Zafira</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2660,13 +2660,13 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>457.208.028-35</t>
+          <t>373.107.748-50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R$ 531,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -2674,13 +2674,13 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dalila</t>
+          <t>Yara</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2690,13 +2690,13 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>070.343.957-05</t>
+          <t>103.002.409-02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R$ 108,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2704,13 +2704,13 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cigana Holanda</t>
+          <t>Cigana Madalena</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2720,13 +2720,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>718.258.034-98</t>
+          <t>070.343.957-05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 18,06</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -2734,13 +2734,13 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cigana D´Ypondá</t>
+          <t>Cronos Tarólogo</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2750,13 +2750,13 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>090.151.501-92</t>
+          <t>138.057.766-75</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R$ 172,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2764,13 +2764,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cleópatra</t>
+          <t>Cigana Salomé</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2780,13 +2780,13 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>469.272.278-90</t>
+          <t>671.468.217-49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R$ 126,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -2794,13 +2794,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ananda Flor</t>
+          <t>Taróloga Évora</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2810,13 +2810,13 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>318.212.428-58</t>
+          <t>065.077.297-20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R$ 182,72</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -2824,13 +2824,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Minerva</t>
+          <t>Cigano Ramiro</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>369.267.558-50</t>
+          <t>422.797.918-89</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -2854,13 +2854,13 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Seraphina Malga</t>
+          <t>Fréia</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2870,13 +2870,13 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>944.666.709-78</t>
+          <t>060.513.704-80</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R$ 677,84</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2884,13 +2884,13 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cigana do Amor</t>
+          <t>Cigana Jamile</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2900,13 +2900,13 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>169.284.756-25</t>
+          <t>048.056.417-28</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 32,38</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -2914,13 +2914,13 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dafne</t>
+          <t>Adara</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2930,13 +2930,13 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>400.637.918-89</t>
+          <t>534.222.838-70</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 124,74</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2944,13 +2944,13 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dona Mariana</t>
+          <t>Cigana Mariah</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2960,13 +2960,13 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>704.732.282-54</t>
+          <t>009.143.967-14</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R$ 500,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -2974,13 +2974,13 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dionisio Cigano</t>
+          <t>Madalenah</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2990,13 +2990,13 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>163.050.176-03</t>
+          <t>403.291.178-90</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R$ 157,92</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3004,13 +3004,13 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ametista</t>
+          <t>Abele</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3020,13 +3020,13 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>109.284.207-10</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R$ 506,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3034,13 +3034,13 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rubi</t>
+          <t>Jana</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3050,13 +3050,13 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>420.097.118-66</t>
+          <t>083.156.417-27</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R$ 1,60</t>
+          <t>R$ 3,36</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3064,13 +3064,13 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Amaya</t>
+          <t>Cigano Saulo</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3080,13 +3080,13 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>844.106.049-53</t>
+          <t>345.169.758-07</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R$ 594,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3094,13 +3094,13 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Cigana do Ouro</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3110,13 +3110,13 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>054.335.118-12</t>
+          <t>163.816.018-09</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>R$ 454,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3124,13 +3124,13 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cigana Ohana</t>
+          <t>Cigana Carmellita</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3140,13 +3140,13 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>446.754.958-77</t>
+          <t>073.183.556-51</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R$ 193,20</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3154,13 +3154,13 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cigana Wlavira</t>
+          <t>Wladimir</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3170,13 +3170,13 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>339.200.285-20</t>
+          <t>156.442.147-37</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R$ 268,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3184,13 +3184,13 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ada</t>
+          <t>Cigana Holanda</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3200,13 +3200,13 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>839.062.159-20</t>
+          <t>718.258.034-98</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R$ 1.373,76</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -3214,13 +3214,13 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jorge D´ Logun Edé</t>
+          <t>Wilka</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>371.242.198-25</t>
+          <t>400.637.188-9</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -3244,13 +3244,13 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Anye</t>
+          <t>Taróloga Milly</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3260,13 +3260,13 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>400.637.918-89</t>
+          <t>427.253.498-00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>R$ 20,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3274,13 +3274,13 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cigana Rosita</t>
+          <t>Sara Cornalina</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3290,13 +3290,13 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>056.593.327-22</t>
+          <t>381.517.928-92</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>R$ 437,60</t>
+          <t>R$ 18,48</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -3304,13 +3304,13 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cigana Juanita</t>
+          <t>Niina</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3320,13 +3320,13 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>047.921.459-02</t>
+          <t>137.195.037-71</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R$ 4,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -3334,13 +3334,13 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cigana da Noite</t>
+          <t>Théo</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3350,13 +3350,13 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>291.479.608-09</t>
+          <t>094.492.653-30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>R$ 179,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Viviana</t>
+          <t>Esther</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3380,13 +3380,13 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>044.156.997-82</t>
+          <t>028.579.121-45</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>R$ 88,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -3394,13 +3394,13 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Dama</t>
+          <t>Frigga Cigana</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3410,13 +3410,13 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>317.770.208-08</t>
+          <t>381.683.658-52</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>R$ 20,40</t>
+          <t>R$ 5,04</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -3424,13 +3424,13 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cigana Estrela</t>
+          <t>Amaira Cartomante</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3440,13 +3440,13 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>381.683.658-52</t>
+          <t>117.255.287-89</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>R$ 106,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -3454,13 +3454,13 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Angelina Vidente</t>
+          <t>Cigana de Padilha</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3470,13 +3470,13 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>731.265.861-04</t>
+          <t>704.732.282-54</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>R$ 338,00</t>
+          <t>R$ 110,46</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -3484,13 +3484,13 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cigana Andressa</t>
+          <t>Amaya</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3500,13 +3500,13 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>138.380.366-89</t>
+          <t>844.106.049-53</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>R$ 24,40</t>
+          <t>R$ 213,69</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -3514,13 +3514,13 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cigana Shanty</t>
+          <t>Mirela Dourada</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3530,13 +3530,13 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>331.963.768-18</t>
+          <t>054.335.118-12</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>R$ 123,20</t>
+          <t>R$ 3,78</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -3544,13 +3544,13 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Eremita Lunar</t>
+          <t>Thata Hindi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3560,13 +3560,13 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>109.433.009-40</t>
+          <t>382.109.708-60</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>R$ 44,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -3574,13 +3574,13 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cigana Serena</t>
+          <t>Hanna</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3590,13 +3590,13 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>903.303.907-91</t>
+          <t>104.827.449-79</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>R$ 54,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -3604,13 +3604,13 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Jade</t>
+          <t>Dalila</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3620,13 +3620,13 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>128.576.748-99</t>
+          <t>109.247.989-98</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>R$ 188,80</t>
+          <t>R$ 81,06</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -3634,13 +3634,13 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pandora</t>
+          <t>Mística Kali</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3650,13 +3650,13 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>101.519.816-39</t>
+          <t>129.447.526-69</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>R$ 145,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -3664,13 +3664,13 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Luna Mystic</t>
+          <t>Aguida Cigana</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3680,13 +3680,13 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>183.070.347-10</t>
+          <t>239.609.508-02</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>R$ 60,40</t>
+          <t>R$ 112,98</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -3694,13 +3694,13 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Indiara</t>
+          <t>Cigana Jasmin</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3710,13 +3710,13 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>151.978.928-97</t>
+          <t>480.141.538-55</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>R$ 406,80</t>
+          <t>R$ 7,28</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -3724,13 +3724,13 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kênia Taróloga</t>
+          <t>Cigana Rosita</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3740,13 +3740,13 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>011.487.248-18</t>
+          <t>152.152.156-17</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>R$ 153,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -3754,13 +3754,13 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Bábà Hércules</t>
+          <t>Soha</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3770,13 +3770,13 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>399.267.818-02</t>
+          <t>230.952.148-55</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>R$ 54,80</t>
+          <t>R$ 15,96</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -3784,13 +3784,13 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Davina</t>
+          <t>Cigana Sulamita</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3800,13 +3800,13 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>453.094.748-38</t>
+          <t>058.874.847-12</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>R$ 174,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -3814,13 +3814,13 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Taróloga Esperança</t>
+          <t>Cigana das Rosas Vermelhas</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3830,13 +3830,13 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>319.428.618-85</t>
+          <t>013.734.020-67</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>R$ 316,64</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -3844,13 +3844,13 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Llana</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3860,13 +3860,13 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>160.152.416-16</t>
+          <t>839.062.159-20</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>R$ 68,00</t>
+          <t>R$ 94,64</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -3874,13 +3874,13 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cigano Maximmus</t>
+          <t>Cigana da Estrada</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3890,13 +3890,13 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>213.619.978-18</t>
+          <t>408.408.878-17</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>R$ 52,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -3904,13 +3904,13 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Flor de Liz</t>
+          <t>Cigana Aylla</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3920,13 +3920,13 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>361.394.948-26</t>
+          <t>372.230.918-27</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>R$ 19,60</t>
+          <t>R$ 27,30</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -3934,13 +3934,13 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Esmè</t>
+          <t>Rosa Padilha</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3950,13 +3950,13 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>456.893.368-40</t>
+          <t>329.206.948-39</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>R$ 132,80</t>
+          <t>R$ 8,93</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -3964,13 +3964,13 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Van de Luz</t>
+          <t>Ayrah</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3980,13 +3980,13 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>075.687.955-86</t>
+          <t>317.770.208-08</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>R$ 54,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -3994,13 +3994,13 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Zaylla</t>
+          <t>Amala</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4010,13 +4010,13 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>269.375.448-80</t>
+          <t>904.393.251-53</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>R$ 91,20</t>
+          <t>R$ 31,92</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4024,13 +4024,13 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Amennda</t>
+          <t>Brisa</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4040,13 +4040,13 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>400.637.918-89</t>
+          <t>146.681.777-17</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>R$ 310,40</t>
+          <t>R$ 6,30</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -4054,13 +4054,13 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Khamael</t>
+          <t>Mago Gabriel</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4070,13 +4070,13 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>063.586.385-56</t>
+          <t>170.718.756-85</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>R$ 706,40</t>
+          <t>R$ 2,10</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -4084,13 +4084,13 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Artemio</t>
+          <t>Cigana Celene</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4100,13 +4100,13 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>179.956.907-11</t>
+          <t>044.156.997-82</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>R$ 385,20</t>
+          <t>R$ 25,20</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -4114,13 +4114,13 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Místico Yago</t>
+          <t>Cleópatra Cigana</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4130,13 +4130,13 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>248.754.848-79</t>
+          <t>095.542.319-89</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>R$ 182,80</t>
+          <t>R$ 6,72</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -4144,13 +4144,13 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cigana Iris</t>
+          <t>Cigano Jozsef</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4160,13 +4160,13 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>091.851.919-57</t>
+          <t>143.955.286-00</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>R$ 15,60</t>
+          <t>R$ 56,28</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -4174,13 +4174,13 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Calíope</t>
+          <t>Cigana Sarah</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4190,13 +4190,13 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>041.449.259-51</t>
+          <t>160.152.416-16</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>R$ 643,60</t>
+          <t>R$ 13,44</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -4204,13 +4204,13 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Jasmyne</t>
+          <t>Mira</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4220,13 +4220,13 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>324.505.018-60</t>
+          <t>453.094.748-38</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>R$ 146,00</t>
+          <t>R$ 20,58</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -4234,13 +4234,13 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Alaine Cigana</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4250,13 +4250,13 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>006.619.678-75</t>
+          <t>054.335.118-12</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>R$ 487,60</t>
+          <t>R$ 45,57</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -4264,13 +4264,13 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Amenadiel</t>
+          <t>Allan D`Oxala</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4280,13 +4280,13 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>127.799.609-14</t>
+          <t>075.687.955-86</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>R$ 849,12</t>
+          <t>R$ 3,36</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -4294,13 +4294,13 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bella Donna</t>
+          <t>Agatha</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4310,13 +4310,13 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>861.369.090-49</t>
+          <t>041.449.259-51</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>R$ 172,80</t>
+          <t>R$ 124,32</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -4324,13 +4324,13 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Rosa Vermelha</t>
+          <t>Rosa vermelha</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4340,13 +4340,13 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>454.952.008-61</t>
+          <t>060.938.735-95</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>R$ 585,60</t>
+          <t>R$ 8,82</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -4354,13 +4354,13 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Yvetta Dante</t>
+          <t>André</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4370,13 +4370,13 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>106.705.107-42</t>
+          <t>127.799.609-14</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>R$ 6,00</t>
+          <t>R$ 37,80</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -4384,13 +4384,13 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Walkiria</t>
+          <t>Rafael D´Ogum</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4400,13 +4400,13 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>892.859.640-87</t>
+          <t>170.349.216-10</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>R$ 598,40</t>
+          <t>R$ 27,30</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -4414,13 +4414,13 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Adália Médium</t>
+          <t>Maria Navalha</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4430,13 +4430,13 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>442.126.768-69</t>
+          <t>006.877.098-73</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>R$ 662,00</t>
+          <t>R$ 40,32</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -4444,13 +4444,13 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>7 Saias</t>
+          <t>Mari Oráculo Cigano</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4460,13 +4460,13 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>051.928.157-89</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>R$ 442,00</t>
+          <t>R$ 2,94</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -4474,13 +4474,13 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Bianca Médium</t>
+          <t>Astarte</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4490,196 +4490,16 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>006.877.098-73</t>
+          <t>462.697.368-03</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>R$ 403,60</t>
+          <t>R$ 1,68</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>449</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Sensitiva Tereza</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>170.349.216-10</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>R$ 236,40</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Alya Luz</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>520.992.078-01</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>R$ 25,20</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Cigano Stefan</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>143.955.286-00</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>R$ 67,20</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Abigail</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>410.310.468-60</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>R$ 102,40</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Violeta</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>000.000.000-00</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>R$ 43,60</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>033.471.880-55</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>R$ 17,20</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/arquivo.xlsx
+++ b/project/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cigana Amanda</t>
+          <t>Cigana Luz</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,13 +504,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>189.015.628-04</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 264,88</t>
+          <t>R$ -37,20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -518,13 +518,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Higor D`Oxala</t>
+          <t>Alana Mística</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,13 +534,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>341.635.858-93</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$ 469,96</t>
+          <t>R$ -100,00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -548,13 +548,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Médium Amora</t>
+          <t>Mística Agnes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -564,13 +564,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>294.298.332</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 199,92</t>
+          <t>R$ -51,95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -578,13 +578,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bridget</t>
+          <t>Rosa da Padilha</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -594,13 +594,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>268.869.558-45</t>
+          <t>446.754.958-77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 14,88</t>
+          <t>R$ 188,80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -614,7 +614,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kabila</t>
+          <t>Aisha</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>031.637.788-01</t>
+          <t>475.451.798-97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -638,13 +638,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>Alyna</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -654,13 +654,13 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>400.637.918-89</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ -51,60</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -668,13 +668,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>testeatt1</t>
+          <t>Vidente Pablo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -682,11 +682,15 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>377.875.738-56</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 112,40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -694,13 +698,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>testeatt1 - NÃO REMOVER</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -708,15 +712,11 @@
           <t>Pg.Edicao.php?Codigo=</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>135.629.258-59</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 48,00</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -724,13 +724,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Beatrice de Yemanjá</t>
+          <t>Lenna</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -740,13 +740,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>006.877.098-73</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 97,24</t>
+          <t>R$ 146,00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -754,13 +754,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Radina</t>
+          <t>Cigana Sulamita</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,13 +770,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>703.439.570-5</t>
+          <t>140.266.778-77</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ -11,20</t>
+          <t>R$ 220,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -784,13 +784,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cigana Safira</t>
+          <t>Safirah de Oxum</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -800,13 +800,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>480.341.128-01</t>
+          <t>347.851.658-71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ -20,16</t>
+          <t>R$ 579,20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -814,13 +814,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Anna Médium</t>
+          <t>Consultor</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -830,13 +830,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>000.000.000-00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 272,48</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -844,13 +844,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cigana Livia</t>
+          <t>Nanda de Iansã</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -860,13 +860,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>844.258.490-00</t>
+          <t>341.635.858-93</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 417,48</t>
+          <t>R$ 726,40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -874,13 +874,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sensitiva Quitéria</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -890,13 +890,13 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>221.006.378-78</t>
+          <t>343.850.048-54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 206,50</t>
+          <t>R$ 402,29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -904,13 +904,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Allano D´Ogum</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -920,13 +920,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>478.756.405-63</t>
+          <t>273.915.638-38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 199,68</t>
+          <t>R$ 48,00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -934,13 +934,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cigana Sol</t>
+          <t>Mistico Ravi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -950,13 +950,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>991.379.097-20</t>
+          <t>077.814.597-25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 51,10</t>
+          <t>R$ 223,60</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -964,13 +964,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>86</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cigana Consuela</t>
+          <t>Alexia</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -980,13 +980,13 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>480.141.538-55</t>
+          <t>218.989.349-86</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 562,52</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -994,13 +994,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kyara</t>
+          <t>Cigana Estrela</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1010,13 +1010,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>040.725.688-13</t>
+          <t>128.318.037-56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 51,84</t>
+          <t>R$ 185,60</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1024,13 +1024,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cigana Rosa</t>
+          <t>Cabocla Jussara</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1040,13 +1040,13 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>859.082.159-53</t>
+          <t>336.455.648-29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 55,68</t>
+          <t>R$ 393,46</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1054,13 +1054,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sarika Clarividente</t>
+          <t>Sarita do Oriente</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1070,13 +1070,13 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>483.724.985-04</t>
+          <t>839.076.610-87</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 60,84</t>
+          <t>R$ 304,80</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1084,13 +1084,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mistica Brida</t>
+          <t>Bella Vidente</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1100,13 +1100,13 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>447.198.599-0</t>
+          <t>006.877.098-73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 181,60</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1114,13 +1114,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Carmem</t>
+          <t>Axell d\' Osumarê</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1130,13 +1130,13 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000.000.000-00</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 770,80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1144,13 +1144,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Adna Cigana</t>
+          <t>Cigano Wladimir</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1160,13 +1160,13 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>022.110.677-43</t>
+          <t>517.363.898-23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 189,12</t>
+          <t>R$ 90,40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1174,13 +1174,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cigana Briza</t>
+          <t>Janaina</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1190,13 +1190,13 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>103.688.977-70</t>
+          <t>699.124.241-15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 71,04</t>
+          <t>R$ 207,73</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1204,13 +1204,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Athena</t>
+          <t>Nanan da Bahia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1220,13 +1220,13 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>019.035.750-95</t>
+          <t>483.724.985-04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 5,20</t>
+          <t>R$ 104,40</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1234,13 +1234,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sulamita</t>
+          <t>Cigana Anarak</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1250,13 +1250,13 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>074.209.057-46</t>
+          <t>302.861.658-05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 30,24</t>
+          <t>R$ 562,80</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1264,13 +1264,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cigano Andaluz</t>
+          <t>Adélia</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1280,13 +1280,13 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>023.594.097-60</t>
+          <t>446.754.958-77</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 141,20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1294,13 +1294,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cigana Kayla</t>
+          <t>Karmem Cigana</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1310,13 +1310,13 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>103.372.017-81</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 9,12</t>
+          <t>R$ 1.951,60</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1324,13 +1324,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sara D’ Osum</t>
+          <t>Crystal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1340,13 +1340,13 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>027.416.297-06</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ -51,55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1354,13 +1354,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Místico Raj</t>
+          <t>Cigana Radhija</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1370,13 +1370,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>077.814.597-25</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 52,80</t>
+          <t>R$ 50,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1384,13 +1384,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cigana Luziara</t>
+          <t>Anastasia</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1400,13 +1400,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>092.809.268-29</t>
+          <t>248.754.848-79</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 105,12</t>
+          <t>R$ 159,20</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1414,13 +1414,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cigana Samara</t>
+          <t>Andria Cigana</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1430,13 +1430,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>480.341.128-10</t>
+          <t>022.110.677-43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 281,60</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1444,13 +1444,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cigana Agatha</t>
+          <t>Cigana Saturnina</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1460,13 +1460,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>119.442.576-72</t>
+          <t>048.975.419-80</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 100,32</t>
+          <t>R$ 867,20</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1474,13 +1474,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ariella do Oriente</t>
+          <t>Bruxa Iris</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1490,13 +1490,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>008.761.297-69</t>
+          <t>019.642.190-00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 167,96</t>
+          <t>R$ 247,60</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1504,13 +1504,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sacerdotisa Nix</t>
+          <t>Artemisia</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1520,13 +1520,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>022.104.229-65</t>
+          <t>092.809.268-29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 258,11</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1534,13 +1534,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cigana Manuela</t>
+          <t>Amabile</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1550,13 +1550,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>781.764.924-34</t>
+          <t>486.717.578-11</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 1.657,20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1564,13 +1564,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dama Carmen</t>
+          <t>Cigana Júlia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1580,13 +1580,13 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>130.080.156-54</t>
+          <t>131.946.738-58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 2,94</t>
+          <t>R$ 156,40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1594,13 +1594,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cigana Duan</t>
+          <t>Pirita Cigana</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1610,13 +1610,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>422.792.698-05</t>
+          <t>704.732.282-54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 96,80</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1624,13 +1624,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cigana Natasha</t>
+          <t>Amelita Cigana</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1640,13 +1640,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>063.416.498-86</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 56,70</t>
+          <t>R$ 1.389,60</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1654,13 +1654,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Angelita</t>
+          <t>Merlin</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1670,13 +1670,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>093.859.127-47</t>
+          <t>138.057.576-11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 109,60</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1684,13 +1684,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cigana Bárbara</t>
+          <t>Áurea</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1700,13 +1700,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>338.641.458-30</t>
+          <t>457.208.028-35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 206,80</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1714,13 +1714,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lilith</t>
+          <t>Ariel Cigana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1730,13 +1730,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>395.446.878-66</t>
+          <t>382.762.418-59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 41,58</t>
+          <t>R$ 1.174,80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1744,13 +1744,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Amy Dantalion</t>
+          <t>Amapola cigana</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1760,13 +1760,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>861.369.090-49</t>
+          <t>239.609.508-02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 612,00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1774,13 +1774,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bruxa Zoraide</t>
+          <t>Ágatha</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1790,13 +1790,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>004.295.250-60</t>
+          <t>534.222.838-70</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 75,18</t>
+          <t>R$ 366,00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -1804,13 +1804,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Amabile Cigana</t>
+          <t>Nia Cigana</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1820,13 +1820,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>382.762.418-59</t>
+          <t>469.599.548-43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 39,48</t>
+          <t>R$ 137,60</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -1834,13 +1834,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cigana Cassandra</t>
+          <t>Cigana Andira</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1850,13 +1850,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>078.404.617-43</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 2,94</t>
+          <t>R$ 3,20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -1864,13 +1864,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cigano Tarim</t>
+          <t>Agenor D\'Ogum</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1880,13 +1880,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>141.583.437-71</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 1,37</t>
+          <t>R$ 323,60</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -1894,13 +1894,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cigana Lua</t>
+          <t>Vênus</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1910,13 +1910,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>503.311.468-94</t>
+          <t>038.066.452-64</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 5,04</t>
+          <t>R$ 102,80</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -1924,13 +1924,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Magus</t>
+          <t>Dhalia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1940,13 +1940,13 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>341.618.268-50</t>
+          <t>095.568.707-17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 55,37</t>
+          <t>R$ 78,80</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -1954,13 +1954,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cigana Dandara da Estrada</t>
+          <t>MeninaD`Oxum</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1970,13 +1970,13 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>297.430.488-55</t>
+          <t>861.369.090-49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 264,40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -1984,13 +1984,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ayla</t>
+          <t>Cigana Soraya</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2000,13 +2000,13 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>095.568.707-17</t>
+          <t>064.056.078-44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 5,04</t>
+          <t>R$ 152,71</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2014,13 +2014,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cigano Muller</t>
+          <t>Bruxa Luiza</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2030,13 +2030,13 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>188.503.338-22</t>
+          <t>004.295.250-60</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 316,80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2044,13 +2044,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cigana Luz</t>
+          <t>Apolodoro</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2060,13 +2060,13 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>495.723.698-49</t>
+          <t>163.050.176-03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 59,12</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2074,13 +2074,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Feiticeiro Morgan</t>
+          <t>Azael Cigano</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2090,13 +2090,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>976.182.170-68</t>
+          <t>332.179.498-54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 96,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2104,13 +2104,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Cigano Matias</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2120,13 +2120,13 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>368.895.498-05</t>
+          <t>327.163.188-32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 9,24</t>
+          <t>R$ 150,80</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2134,13 +2134,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pitágoras</t>
+          <t>Cigana Rosa</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2150,13 +2150,13 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>138.057.576-11</t>
+          <t>514.672.528-40</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 39,20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2164,13 +2164,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Vidente Lana</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2180,13 +2180,13 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>038.066.452-64</t>
+          <t>109.247.989-98</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 20,16</t>
+          <t>R$ 106,80</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2194,13 +2194,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sumaya do Oriente</t>
+          <t>Acqua</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2210,13 +2210,13 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>395.754.918-31</t>
+          <t>318.212.428-58</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 138,40</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2224,13 +2224,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ísis</t>
+          <t>Cigana Safira</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2240,13 +2240,13 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>135.180.778-13</t>
+          <t>174.614.556-05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 18,40</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2254,13 +2254,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lua D´Oxum</t>
+          <t>Anny Cigana</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>291.479.608-09</t>
+          <t>332.110.268-43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2284,13 +2284,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amicia</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2300,13 +2300,13 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>080.146.496-05</t>
+          <t>578.217.390-49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 178,08</t>
+          <t>R$ 691,60</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2314,13 +2314,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cigana Alma</t>
+          <t>Cigana da Noite</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2330,13 +2330,13 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>018.457.950-32</t>
+          <t>291.479.608-09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 132,00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2344,13 +2344,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Adaline</t>
+          <t>Bruxa Mahasin</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2360,13 +2360,13 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>356.434.148-05</t>
+          <t>331.963.768-18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 58,40</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2374,13 +2374,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Estella</t>
+          <t>Cigana Catherine</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2390,13 +2390,13 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>128.576.748-99</t>
+          <t>230.952.148-55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 22,80</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2404,13 +2404,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dicearco</t>
+          <t>Nama</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2420,13 +2420,13 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>163.050.176-03</t>
+          <t>415.877.228-10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 11,34</t>
+          <t>R$ 98,40</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2434,13 +2434,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cigana Zattara</t>
+          <t>Txai Nando</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2450,13 +2450,13 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>023.594.097-60</t>
+          <t>180.743.808-23</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 149,60</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -2464,13 +2464,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Aymê D Osun</t>
+          <t>Taróloga das Estrelas</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2480,13 +2480,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>047.921.459-02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 161,21</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2494,13 +2494,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cigana Pérola</t>
+          <t>Ayana</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2510,13 +2510,13 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>097.881.807-52</t>
+          <t>388.583.918-02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 17,64</t>
+          <t>R$ 142,80</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2524,13 +2524,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pandora</t>
+          <t>Bruxa Amirah</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2540,13 +2540,13 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>118.735.717-04</t>
+          <t>110.563.826-00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 186,40</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2554,13 +2554,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Alba</t>
+          <t>Dama da Lua</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2570,13 +2570,13 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>063.928.839-16</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 78,12</t>
+          <t>R$ 10,80</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2584,13 +2584,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cigana Crystal</t>
+          <t>Lara Fabian</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2600,13 +2600,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>352.663.778-44</t>
+          <t>151.978.928-97</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 20,16</t>
+          <t>R$ 49,60</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -2614,13 +2614,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gaya Cigana</t>
+          <t>Cigana Esmeralda</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2630,13 +2630,13 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>072.879.826-33</t>
+          <t>397.311.878-71</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 104,80</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2644,13 +2644,13 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zafira</t>
+          <t>Abele de Oyá</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2660,13 +2660,13 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>373.107.748-50</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 322,00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -2674,13 +2674,13 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Yara</t>
+          <t>Mística Tally</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2690,13 +2690,13 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>103.002.409-02</t>
+          <t>160.152.416-16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 38,40</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2704,13 +2704,13 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cigana Madalena</t>
+          <t>Maria Eulália</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2720,13 +2720,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>070.343.957-05</t>
+          <t>403.291.178-90</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R$ 18,06</t>
+          <t>R$ 88,40</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -2734,13 +2734,13 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cronos Tarólogo</t>
+          <t>Mago Castiel</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2750,13 +2750,13 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>138.057.766-75</t>
+          <t>341.618.268-50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 162,80</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2764,13 +2764,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cigana Salomé</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2780,13 +2780,13 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>671.468.217-49</t>
+          <t>080.373.609-62</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 144,40</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -2794,13 +2794,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Taróloga Évora</t>
+          <t>Místico Eragon</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>065.077.297-20</t>
+          <t>399.267.818-02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -2824,13 +2824,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cigano Ramiro</t>
+          <t>Cigana Sol</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2840,13 +2840,13 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>422.797.918-89</t>
+          <t>316.526.538-05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 12,80</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -2854,13 +2854,13 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fréia</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2870,13 +2870,13 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>060.513.704-80</t>
+          <t>172.340.868-97</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 271,60</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2884,13 +2884,13 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cigana Jamile</t>
+          <t>Tarotista Rená</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2900,13 +2900,13 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>048.056.417-28</t>
+          <t>008.037.842-01</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R$ 32,38</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -2914,13 +2914,13 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Adara</t>
+          <t>Cigana Do Cruzeiro</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2930,13 +2930,13 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>534.222.838-70</t>
+          <t>090.151.501-92</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R$ 124,74</t>
+          <t>R$ 175,60</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2944,13 +2944,13 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cigana Mariah</t>
+          <t>Bruxa Aline</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2960,13 +2960,13 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>009.143.967-14</t>
+          <t>839.062.159-20</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 136,80</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -2974,13 +2974,13 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Madalenah</t>
+          <t>Lua de Xangô</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2990,13 +2990,13 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>403.291.178-90</t>
+          <t>427.253.498-00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 94,40</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3004,13 +3004,13 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Abele</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3020,13 +3020,13 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>109.284.207-10</t>
+          <t>844.106.049-53</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 130,80</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3034,13 +3034,13 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jana</t>
+          <t>Bruxa Ayvori</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3050,13 +3050,13 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>083.156.417-27</t>
+          <t>343.678.880-53</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R$ 3,36</t>
+          <t>R$ 309,60</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3064,13 +3064,13 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cigano Saulo</t>
+          <t>Cigana Felicia</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3080,13 +3080,13 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>345.169.758-07</t>
+          <t>072.716.869-08</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 125,60</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3094,13 +3094,13 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cigana do Ouro</t>
+          <t>Dionísia</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3110,13 +3110,13 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>163.816.018-09</t>
+          <t>175.824.068-77</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 85,20</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3124,13 +3124,13 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cigana Carmellita</t>
+          <t>Arosa dos Ventos</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3140,13 +3140,13 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>073.183.556-51</t>
+          <t>375.708.318-02</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 261,60</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3154,13 +3154,13 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wladimir</t>
+          <t>Sensitivo Costa</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3170,13 +3170,13 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>156.442.147-37</t>
+          <t>143.955.286-00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 156,40</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3184,13 +3184,13 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cigana Holanda</t>
+          <t>Heylel</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3200,13 +3200,13 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>718.258.034-98</t>
+          <t>140.385.657-50</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 40,40</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -3214,13 +3214,13 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wilka</t>
+          <t>Abbe Lamare</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3230,13 +3230,13 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>400.637.188-9</t>
+          <t>087.903.607-96</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 528,80</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3244,13 +3244,13 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Taróloga Milly</t>
+          <t>Ayla</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3260,13 +3260,13 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>427.253.498-00</t>
+          <t>108.499.138-10</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 10,40</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3274,13 +3274,13 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sara Cornalina</t>
+          <t>Bruxa Hera</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3290,13 +3290,13 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>381.517.928-92</t>
+          <t>060.041.077-35</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>R$ 18,48</t>
+          <t>R$ 671,20</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -3304,13 +3304,13 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Niina</t>
+          <t>Cigano Juan</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3320,13 +3320,13 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>137.195.037-71</t>
+          <t>111.993.457-50</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 1.246,00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -3334,13 +3334,13 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Théo</t>
+          <t>Cris de Opará</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3350,13 +3350,13 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>094.492.653-30</t>
+          <t>270.427.118-66</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 206,00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Esther</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3380,13 +3380,13 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>028.579.121-45</t>
+          <t>028.294.996-89</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 144,40</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -3394,13 +3394,13 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Frigga Cigana</t>
+          <t>Cigano Eldarion</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3410,13 +3410,13 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>381.683.658-52</t>
+          <t>421.651.898-29</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>R$ 5,04</t>
+          <t>R$ 36,00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -3424,13 +3424,13 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Amaira Cartomante</t>
+          <t>Madame Diana</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3440,13 +3440,13 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>117.255.287-89</t>
+          <t>033.718.940-45</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 306,40</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -3454,13 +3454,13 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cigana de Padilha</t>
+          <t>Aia de Kali</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3470,13 +3470,13 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>704.732.282-54</t>
+          <t>037.854.461-60</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>R$ 110,46</t>
+          <t>R$ 1.416,64</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -3484,13 +3484,13 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Amaya</t>
+          <t>Sensitiva Mariah</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3500,13 +3500,13 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>844.106.049-53</t>
+          <t>170.349.216-10</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>R$ 213,69</t>
+          <t>R$ 43,60</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -3514,13 +3514,13 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mirela Dourada</t>
+          <t>Esmé</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3530,13 +3530,13 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>054.335.118-12</t>
+          <t>456.893.368-40</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>R$ 3,78</t>
+          <t>R$ 148,40</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -3544,13 +3544,13 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Thata Hindi</t>
+          <t>Bruxa Helenna</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3560,13 +3560,13 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>382.109.708-60</t>
+          <t>892.859.640-87</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 1.227,20</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -3574,13 +3574,13 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Hanna</t>
+          <t>BellaDonna</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3590,13 +3590,13 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>104.827.449-79</t>
+          <t>861.369.090-49</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 34,80</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -3604,13 +3604,13 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dalila</t>
+          <t>Yasmin</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3620,13 +3620,13 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>109.247.989-98</t>
+          <t>097.881.807-52</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>R$ 81,06</t>
+          <t>R$ 94,80</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -3634,13 +3634,13 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mística Kali</t>
+          <t>Mago Arion</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3650,13 +3650,13 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>129.447.526-69</t>
+          <t>037.345.160-13</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 313,20</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -3664,13 +3664,13 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Aguida Cigana</t>
+          <t>Adara de Ogum</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3680,13 +3680,13 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>239.609.508-02</t>
+          <t>257.685.758-20</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>R$ 112,98</t>
+          <t>R$ 177,60</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -3694,13 +3694,13 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cigana Jasmin</t>
+          <t>Cigano Darius</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3710,13 +3710,13 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>480.141.538-55</t>
+          <t>013.751.650-97</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>R$ 7,28</t>
+          <t>R$ 135,20</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -3724,13 +3724,13 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cigana Rosita</t>
+          <t>Anarie</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3740,13 +3740,13 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>152.152.156-17</t>
+          <t>509.850.118-07</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 22,40</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -3754,13 +3754,13 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Soha</t>
+          <t>Abel Cigano</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3770,13 +3770,13 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>230.952.148-55</t>
+          <t>051.215.670-06</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>R$ 15,96</t>
+          <t>R$ 283,20</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -3784,13 +3784,13 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cigana Sulamita</t>
+          <t>Catharina</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3800,13 +3800,13 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>058.874.847-12</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 24,80</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -3814,13 +3814,13 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cigana das Rosas Vermelhas</t>
+          <t>Bruxa Obsidian</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3830,13 +3830,13 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>013.734.020-67</t>
+          <t>446.506.418-70</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 37,60</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -3844,13 +3844,13 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Alma</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3860,13 +3860,13 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>839.062.159-20</t>
+          <t>730.913.400-15</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>R$ 94,64</t>
+          <t>R$ 153,20</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -3874,13 +3874,13 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cigana da Estrada</t>
+          <t>Cigana Melina</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3890,13 +3890,13 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>408.408.878-17</t>
+          <t>859.975.287-15</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 202,40</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -3904,13 +3904,13 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cigana Aylla</t>
+          <t>Cigana Neylin</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3920,13 +3920,13 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>372.230.918-27</t>
+          <t>326.065.768-10</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>R$ 27,30</t>
+          <t>R$ 68,80</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -3934,13 +3934,13 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rosa Padilha</t>
+          <t>Dalila</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3950,556 +3950,16 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>329.206.948-39</t>
+          <t>026.681.725-43</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>R$ 8,93</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Ayrah</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>317.770.208-08</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Amala</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>904.393.251-53</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>R$ 31,92</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Brisa</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>146.681.777-17</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>R$ 6,30</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Mago Gabriel</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>170.718.756-85</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>R$ 2,10</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Cigana Celene</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>044.156.997-82</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>R$ 25,20</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Cleópatra Cigana</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>095.542.319-89</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>R$ 6,72</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Cigano Jozsef</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>143.955.286-00</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>R$ 56,28</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Cigana Sarah</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>160.152.416-16</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>R$ 13,44</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Mira</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>453.094.748-38</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>R$ 20,58</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>054.335.118-12</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>R$ 45,57</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Allan D`Oxala</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>075.687.955-86</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>R$ 3,36</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Agatha</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>041.449.259-51</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>R$ 124,32</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Rosa vermelha</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>060.938.735-95</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>R$ 8,82</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>André</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>127.799.609-14</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>R$ 37,80</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Rafael D´Ogum</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>170.349.216-10</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>R$ 27,30</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Maria Navalha</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>006.877.098-73</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>R$ 40,32</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Mari Oráculo Cigano</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>051.928.157-89</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>R$ 2,94</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Astarte</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>462.697.368-03</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>R$ 1,68</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
